--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_015_SyntheticQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_015_SyntheticQuotes.xlsx
@@ -1031,7 +1031,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="D8" s="16" t="str">
         <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>X:\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+        <v>\\srv0001\Risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="15"/>
     </row>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_015_SyntheticQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_015_SyntheticQuotes.xlsx
@@ -14,9 +14,6 @@
     <sheet name="6M" sheetId="15" r:id="rId5"/>
     <sheet name="1Y" sheetId="16" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$14</definedName>
     <definedName name="FileOverwrite">'General Settings'!$D$9</definedName>
@@ -722,22 +719,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1049,7 +1030,7 @@
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1117,8 +1098,8 @@
         <v>11</v>
       </c>
       <c r="D8" s="16" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\Risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+        <f>qlSerializationPath(Trigger)</f>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="15"/>
     </row>
@@ -1247,13 +1228,13 @@
         <f>Currency&amp;"_015_SyntheticQuotes"&amp;Tenor&amp;".xml"</f>
         <v>HKD_015_SyntheticQuotesON.xml</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="39" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(D3:D4,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>2</v>
+        <v>#NUM!</v>
       </c>
       <c r="E2" s="34" t="str">
-        <f>_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_015_SyntheticQuotesON.xml</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -1268,7 +1249,7 @@
       </c>
       <c r="D3" s="47" t="str">
         <f>_xll.qlSimpleQuote(C3,1,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTOY_SYNTHON_Quote#0002</v>
+        <v>HKDTOY_SYNTHON_Quote#0001</v>
       </c>
       <c r="E3" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(D3)</f>
@@ -1287,7 +1268,7 @@
       </c>
       <c r="D4" s="41" t="str">
         <f>_xll.qlSimpleQuote(C4,1,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTOY2_SYNTHON_Quote#0002</v>
+        <v>HKDTOY2_SYNTHON_Quote#0001</v>
       </c>
       <c r="E4" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(D4)</f>
@@ -1351,13 +1332,13 @@
         <f>Currency&amp;"_015_SyntheticQuotes"&amp;Tenor&amp;".xml"</f>
         <v>HKD_015_SyntheticQuotes1M.xml</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="39" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(D3:D11,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>9</v>
+        <v>#NUM!</v>
       </c>
       <c r="E2" s="34" t="str">
-        <f>_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_015_SyntheticQuotes1M.xml</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -1372,7 +1353,7 @@
       </c>
       <c r="D3" s="40" t="str">
         <f>_xll.qlSimpleQuote(C3,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOND_SYNTH1M_Quote#0002</v>
+        <v>HKDOND_SYNTH1M_Quote#0001</v>
       </c>
       <c r="E3" s="42" t="str">
         <f>_xll.ohRangeRetrieveError(D3)</f>
@@ -1391,7 +1372,7 @@
       </c>
       <c r="D4" s="40" t="str">
         <f>_xll.qlSimpleQuote(C4,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTND_SYNTH1M_Quote#0002</v>
+        <v>HKDTND_SYNTH1M_Quote#0001</v>
       </c>
       <c r="E4" s="42" t="str">
         <f>_xll.ohRangeRetrieveError(D4)</f>
@@ -1410,7 +1391,7 @@
       </c>
       <c r="D5" s="40" t="str">
         <f>_xll.qlSimpleQuote(C5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSND_SYNTH1M_Quote#0002</v>
+        <v>HKDSND_SYNTH1M_Quote#0001</v>
       </c>
       <c r="E5" s="42" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -1429,7 +1410,7 @@
       </c>
       <c r="D6" s="40" t="str">
         <f>_xll.qlSimpleQuote(C6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSWD_SYNTH1M_Quote#0002</v>
+        <v>HKDSWD_SYNTH1M_Quote#0001</v>
       </c>
       <c r="E6" s="42" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -1448,7 +1429,7 @@
       </c>
       <c r="D7" s="40" t="str">
         <f>_xll.qlSimpleQuote(C7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2WD_SYNTH1M_Quote#0002</v>
+        <v>HKD2WD_SYNTH1M_Quote#0001</v>
       </c>
       <c r="E7" s="42" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -1467,7 +1448,7 @@
       </c>
       <c r="D8" s="40" t="str">
         <f>_xll.qlSimpleQuote(C8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3WD_SYNTH1M_Quote#0002</v>
+        <v>HKD3WD_SYNTH1M_Quote#0001</v>
       </c>
       <c r="E8" s="42" t="str">
         <f>_xll.ohRangeRetrieveError(D8)</f>
@@ -1486,7 +1467,7 @@
       </c>
       <c r="D9" s="37" t="str">
         <f>_xll.qlSimpleQuote(C9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1MD_SYNTH1M_Quote#0002</v>
+        <v>HKD1MD_SYNTH1M_Quote#0001</v>
       </c>
       <c r="E9" s="42" t="str">
         <f>_xll.ohRangeRetrieveError(D9)</f>
@@ -1505,7 +1486,7 @@
       </c>
       <c r="D10" s="47" t="str">
         <f>_xll.qlSimpleQuote(C10,1,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTOY_SYNTH1M_Quote#0002</v>
+        <v>HKDTOY_SYNTH1M_Quote#0001</v>
       </c>
       <c r="E10" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(D10)</f>
@@ -1524,7 +1505,7 @@
       </c>
       <c r="D11" s="41" t="str">
         <f>_xll.qlSimpleQuote(C11,1,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTOY2_SYNTH1M_Quote#0002</v>
+        <v>HKDTOY2_SYNTH1M_Quote#0001</v>
       </c>
       <c r="E11" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(D11)</f>
@@ -1588,13 +1569,13 @@
         <f>Currency&amp;"_015_SyntheticQuotes"&amp;Tenor&amp;".xml"</f>
         <v>HKD_015_SyntheticQuotes3M.xml</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="39" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(D3:D13,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>11</v>
+        <v>#NUM!</v>
       </c>
       <c r="E2" s="34" t="str">
-        <f>_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_015_SyntheticQuotes3M.xml</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -1609,7 +1590,7 @@
       </c>
       <c r="D3" s="37" t="str">
         <f>_xll.qlSimpleQuote(C3,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOND_SYNTH3M_Quote#0002</v>
+        <v>HKDOND_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E3" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D3)</f>
@@ -1628,7 +1609,7 @@
       </c>
       <c r="D4" s="37" t="str">
         <f>_xll.qlSimpleQuote(C4,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTND_SYNTH3M_Quote#0002</v>
+        <v>HKDTND_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E4" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D4)</f>
@@ -1647,7 +1628,7 @@
       </c>
       <c r="D5" s="37" t="str">
         <f>_xll.qlSimpleQuote(C5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSND_SYNTH3M_Quote#0002</v>
+        <v>HKDSND_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E5" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -1666,7 +1647,7 @@
       </c>
       <c r="D6" s="37" t="str">
         <f>_xll.qlSimpleQuote(C6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSWD_SYNTH3M_Quote#0002</v>
+        <v>HKDSWD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E6" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -1685,7 +1666,7 @@
       </c>
       <c r="D7" s="37" t="str">
         <f>_xll.qlSimpleQuote(C7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2WD_SYNTH3M_Quote#0002</v>
+        <v>HKD2WD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E7" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -1704,7 +1685,7 @@
       </c>
       <c r="D8" s="37" t="str">
         <f>_xll.qlSimpleQuote(C8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3WD_SYNTH3M_Quote#0002</v>
+        <v>HKD3WD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E8" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D8)</f>
@@ -1723,7 +1704,7 @@
       </c>
       <c r="D9" s="37" t="str">
         <f>_xll.qlSimpleQuote(C9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1MD_SYNTH3M_Quote#0002</v>
+        <v>HKD1MD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E9" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D9)</f>
@@ -1742,7 +1723,7 @@
       </c>
       <c r="D10" s="37" t="str">
         <f>_xll.qlSimpleQuote(C10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2MD_SYNTH3M_Quote#0002</v>
+        <v>HKD2MD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E10" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D10)</f>
@@ -1761,7 +1742,7 @@
       </c>
       <c r="D11" s="37" t="str">
         <f>_xll.qlSimpleQuote(C11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3MD_SYNTH3M_Quote#0002</v>
+        <v>HKD3MD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E11" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D11)</f>
@@ -1780,7 +1761,7 @@
       </c>
       <c r="D12" s="44" t="str">
         <f>_xll.qlSimpleQuote(C12,1,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTOY_SYNTH3M_Quote#0002</v>
+        <v>HKDTOY_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E12" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(D12)</f>
@@ -1799,7 +1780,7 @@
       </c>
       <c r="D13" s="38" t="str">
         <f>_xll.qlSimpleQuote(C13,1,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTOY2_SYNTH3M_Quote#0002</v>
+        <v>HKDTOY2_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E13" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(D13)</f>
@@ -1863,13 +1844,13 @@
         <f>Currency&amp;"_015_SyntheticQuotes"&amp;Tenor&amp;".xml"</f>
         <v>HKD_015_SyntheticQuotes6M.xml</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="39" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(D3:D16,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>14</v>
+        <v>#NUM!</v>
       </c>
       <c r="E2" s="34" t="str">
-        <f>_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_015_SyntheticQuotes6M.xml</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -1884,7 +1865,7 @@
       </c>
       <c r="D3" s="44" t="str">
         <f>_xll.qlSimpleQuote(C3,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOND_SYNTH6M_Quote#0002</v>
+        <v>HKDOND_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E3" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(D3)</f>
@@ -1903,7 +1884,7 @@
       </c>
       <c r="D4" s="37" t="str">
         <f>_xll.qlSimpleQuote(C4,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTND_SYNTH6M_Quote#0002</v>
+        <v>HKDTND_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E4" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D4)</f>
@@ -1922,7 +1903,7 @@
       </c>
       <c r="D5" s="37" t="str">
         <f>_xll.qlSimpleQuote(C5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSND_SYNTH6M_Quote#0002</v>
+        <v>HKDSND_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E5" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -1941,7 +1922,7 @@
       </c>
       <c r="D6" s="37" t="str">
         <f>_xll.qlSimpleQuote(C6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSWD_SYNTH6M_Quote#0002</v>
+        <v>HKDSWD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E6" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -1960,7 +1941,7 @@
       </c>
       <c r="D7" s="37" t="str">
         <f>_xll.qlSimpleQuote(C7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2WD_SYNTH6M_Quote#0002</v>
+        <v>HKD2WD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E7" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -1979,7 +1960,7 @@
       </c>
       <c r="D8" s="37" t="str">
         <f>_xll.qlSimpleQuote(C8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3WD_SYNTH6M_Quote#0002</v>
+        <v>HKD3WD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E8" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D8)</f>
@@ -1998,7 +1979,7 @@
       </c>
       <c r="D9" s="37" t="str">
         <f>_xll.qlSimpleQuote(C9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1MD_SYNTH6M_Quote#0002</v>
+        <v>HKD1MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E9" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D9)</f>
@@ -2017,7 +1998,7 @@
       </c>
       <c r="D10" s="37" t="str">
         <f>_xll.qlSimpleQuote(C10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2MD_SYNTH6M_Quote#0002</v>
+        <v>HKD2MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E10" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D10)</f>
@@ -2036,7 +2017,7 @@
       </c>
       <c r="D11" s="37" t="str">
         <f>_xll.qlSimpleQuote(C11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3MD_SYNTH6M_Quote#0002</v>
+        <v>HKD3MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E11" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D11)</f>
@@ -2055,7 +2036,7 @@
       </c>
       <c r="D12" s="37" t="str">
         <f>_xll.qlSimpleQuote(C12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD4MD_SYNTH6M_Quote#0002</v>
+        <v>HKD4MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E12" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D12)</f>
@@ -2074,7 +2055,7 @@
       </c>
       <c r="D13" s="37" t="str">
         <f>_xll.qlSimpleQuote(C13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD5MD_SYNTH6M_Quote#0002</v>
+        <v>HKD5MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E13" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D13)</f>
@@ -2093,7 +2074,7 @@
       </c>
       <c r="D14" s="38" t="str">
         <f>_xll.qlSimpleQuote(C14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6MD_SYNTH6M_Quote#0002</v>
+        <v>HKD6MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E14" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(D14)</f>
@@ -2112,7 +2093,7 @@
       </c>
       <c r="D15" s="37" t="str">
         <f>_xll.qlSimpleQuote(C15,1,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTOY_SYNTH6M_Quote#0002</v>
+        <v>HKDTOY_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E15" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D15)</f>
@@ -2131,7 +2112,7 @@
       </c>
       <c r="D16" s="38" t="str">
         <f>_xll.qlSimpleQuote(C16,1,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTOY2_SYNTH6M_Quote#0002</v>
+        <v>HKDTOY2_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E16" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(D16)</f>
@@ -2195,13 +2176,13 @@
         <f>Currency&amp;"_015_SyntheticQuotes"&amp;Tenor&amp;".xml"</f>
         <v>HKD_015_SyntheticQuotes1Y.xml</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="39" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(D3:D64,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>62</v>
+        <v>#NUM!</v>
       </c>
       <c r="E2" s="34" t="str">
-        <f>_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_015_SyntheticQuotes1Y.xml</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -2216,7 +2197,7 @@
       </c>
       <c r="D3" s="37" t="str">
         <f>_xll.qlSimpleQuote(C3,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOND_SYNTH1Y_Quote#0002</v>
+        <v>HKDOND_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E3" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D3)</f>
@@ -2235,7 +2216,7 @@
       </c>
       <c r="D4" s="37" t="str">
         <f>_xll.qlSimpleQuote(C4,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTND_SYNTH1Y_Quote#0002</v>
+        <v>HKDTND_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E4" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D4)</f>
@@ -2254,7 +2235,7 @@
       </c>
       <c r="D5" s="37" t="str">
         <f>_xll.qlSimpleQuote(C5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSND_SYNTH1Y_Quote#0002</v>
+        <v>HKDSND_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E5" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -2273,7 +2254,7 @@
       </c>
       <c r="D6" s="37" t="str">
         <f>_xll.qlSimpleQuote(C6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSWD_SYNTH1Y_Quote#0002</v>
+        <v>HKDSWD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E6" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -2292,7 +2273,7 @@
       </c>
       <c r="D7" s="37" t="str">
         <f>_xll.qlSimpleQuote(C7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2WD_SYNTH1Y_Quote#0002</v>
+        <v>HKD2WD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E7" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -2311,7 +2292,7 @@
       </c>
       <c r="D8" s="37" t="str">
         <f>_xll.qlSimpleQuote(C8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3WD_SYNTH1Y_Quote#0002</v>
+        <v>HKD3WD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E8" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D8)</f>
@@ -2330,7 +2311,7 @@
       </c>
       <c r="D9" s="37" t="str">
         <f>_xll.qlSimpleQuote(C9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1MD_SYNTH1Y_Quote#0002</v>
+        <v>HKD1MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E9" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D9)</f>
@@ -2349,7 +2330,7 @@
       </c>
       <c r="D10" s="37" t="str">
         <f>_xll.qlSimpleQuote(C10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2MD_SYNTH1Y_Quote#0002</v>
+        <v>HKD2MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E10" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D10)</f>
@@ -2368,7 +2349,7 @@
       </c>
       <c r="D11" s="37" t="str">
         <f>_xll.qlSimpleQuote(C11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3MD_SYNTH1Y_Quote#0002</v>
+        <v>HKD3MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E11" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D11)</f>
@@ -2387,7 +2368,7 @@
       </c>
       <c r="D12" s="37" t="str">
         <f>_xll.qlSimpleQuote(C12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD4MD_SYNTH1Y_Quote#0002</v>
+        <v>HKD4MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E12" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D12)</f>
@@ -2406,7 +2387,7 @@
       </c>
       <c r="D13" s="37" t="str">
         <f>_xll.qlSimpleQuote(C13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD5MD_SYNTH1Y_Quote#0002</v>
+        <v>HKD5MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E13" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D13)</f>
@@ -2425,7 +2406,7 @@
       </c>
       <c r="D14" s="37" t="str">
         <f>_xll.qlSimpleQuote(C14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6MD_SYNTH1Y_Quote#0002</v>
+        <v>HKD6MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E14" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D14)</f>
@@ -2444,7 +2425,7 @@
       </c>
       <c r="D15" s="37" t="str">
         <f>_xll.qlSimpleQuote(C15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD7MD_SYNTH1Y_Quote#0002</v>
+        <v>HKD7MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E15" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D15)</f>
@@ -2463,7 +2444,7 @@
       </c>
       <c r="D16" s="37" t="str">
         <f>_xll.qlSimpleQuote(C16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD8MD_SYNTH1Y_Quote#0002</v>
+        <v>HKD8MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E16" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D16)</f>
@@ -2482,7 +2463,7 @@
       </c>
       <c r="D17" s="37" t="str">
         <f>_xll.qlSimpleQuote(C17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD9MD_SYNTH1Y_Quote#0002</v>
+        <v>HKD9MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E17" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D17)</f>
@@ -2501,7 +2482,7 @@
       </c>
       <c r="D18" s="37" t="str">
         <f>_xll.qlSimpleQuote(C18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD10MD_SYNTH1Y_Quote#0002</v>
+        <v>HKD10MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E18" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D18)</f>
@@ -2520,7 +2501,7 @@
       </c>
       <c r="D19" s="37" t="str">
         <f>_xll.qlSimpleQuote(C19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD11MD_SYNTH1Y_Quote#0002</v>
+        <v>HKD11MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E19" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D19)</f>
@@ -2539,7 +2520,7 @@
       </c>
       <c r="D20" s="38" t="str">
         <f>_xll.qlSimpleQuote(C20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1YD_SYNTH1Y_Quote#0002</v>
+        <v>HKD1YD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E20" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(D20)</f>
@@ -2561,7 +2542,7 @@
       </c>
       <c r="D21" s="44" t="str">
         <f>_xll.qlSimpleQuote(C21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1x13F_SYNTH1Y_Quote#0002</v>
+        <v>HKD1x13F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E21" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(D21)</f>
@@ -2583,7 +2564,7 @@
       </c>
       <c r="D22" s="37" t="str">
         <f>_xll.qlSimpleQuote(C22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2x14F_SYNTH1Y_Quote#0002</v>
+        <v>HKD2x14F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E22" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D22)</f>
@@ -2605,7 +2586,7 @@
       </c>
       <c r="D23" s="37" t="str">
         <f>_xll.qlSimpleQuote(C23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3x15F_SYNTH1Y_Quote#0002</v>
+        <v>HKD3x15F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E23" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D23)</f>
@@ -2627,7 +2608,7 @@
       </c>
       <c r="D24" s="37" t="str">
         <f>_xll.qlSimpleQuote(C24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD4x16F_SYNTH1Y_Quote#0002</v>
+        <v>HKD4x16F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E24" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D24)</f>
@@ -2649,7 +2630,7 @@
       </c>
       <c r="D25" s="37" t="str">
         <f>_xll.qlSimpleQuote(C25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD5x17F_SYNTH1Y_Quote#0002</v>
+        <v>HKD5x17F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E25" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D25)</f>
@@ -2671,7 +2652,7 @@
       </c>
       <c r="D26" s="37" t="str">
         <f>_xll.qlSimpleQuote(C26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6x18F_SYNTH1Y_Quote#0002</v>
+        <v>HKD6x18F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E26" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D26)</f>
@@ -2693,7 +2674,7 @@
       </c>
       <c r="D27" s="37" t="str">
         <f>_xll.qlSimpleQuote(C27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD7x19F_SYNTH1Y_Quote#0002</v>
+        <v>HKD7x19F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E27" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D27)</f>
@@ -2715,7 +2696,7 @@
       </c>
       <c r="D28" s="37" t="str">
         <f>_xll.qlSimpleQuote(C28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD8x20F_SYNTH1Y_Quote#0002</v>
+        <v>HKD8x20F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E28" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D28)</f>
@@ -2737,7 +2718,7 @@
       </c>
       <c r="D29" s="37" t="str">
         <f>_xll.qlSimpleQuote(C29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD9x21F_SYNTH1Y_Quote#0002</v>
+        <v>HKD9x21F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E29" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D29)</f>
@@ -2759,7 +2740,7 @@
       </c>
       <c r="D30" s="37" t="str">
         <f>_xll.qlSimpleQuote(C30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD10x22F_SYNTH1Y_Quote#0002</v>
+        <v>HKD10x22F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E30" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D30)</f>
@@ -2781,7 +2762,7 @@
       </c>
       <c r="D31" s="37" t="str">
         <f>_xll.qlSimpleQuote(C31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD11x23F_SYNTH1Y_Quote#0002</v>
+        <v>HKD11x23F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E31" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D31)</f>
@@ -2803,7 +2784,7 @@
       </c>
       <c r="D32" s="37" t="str">
         <f>_xll.qlSimpleQuote(C32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD13x25F_SYNTH1Y_Quote#0002</v>
+        <v>HKD13x25F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E32" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D32)</f>
@@ -2825,7 +2806,7 @@
       </c>
       <c r="D33" s="37" t="str">
         <f>_xll.qlSimpleQuote(C33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD14x26F_SYNTH1Y_Quote#0002</v>
+        <v>HKD14x26F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E33" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D33)</f>
@@ -2847,7 +2828,7 @@
       </c>
       <c r="D34" s="37" t="str">
         <f>_xll.qlSimpleQuote(C34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD15x27F_SYNTH1Y_Quote#0002</v>
+        <v>HKD15x27F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E34" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D34)</f>
@@ -2869,7 +2850,7 @@
       </c>
       <c r="D35" s="37" t="str">
         <f>_xll.qlSimpleQuote(C35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD16x28F_SYNTH1Y_Quote#0002</v>
+        <v>HKD16x28F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E35" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D35)</f>
@@ -2891,7 +2872,7 @@
       </c>
       <c r="D36" s="37" t="str">
         <f>_xll.qlSimpleQuote(C36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD17x29F_SYNTH1Y_Quote#0002</v>
+        <v>HKD17x29F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E36" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D36)</f>
@@ -2913,7 +2894,7 @@
       </c>
       <c r="D37" s="37" t="str">
         <f>_xll.qlSimpleQuote(C37,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD18x30F_SYNTH1Y_Quote#0002</v>
+        <v>HKD18x30F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E37" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D37)</f>
@@ -2935,7 +2916,7 @@
       </c>
       <c r="D38" s="37" t="str">
         <f>_xll.qlSimpleQuote(C38,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD19x31F_SYNTH1Y_Quote#0002</v>
+        <v>HKD19x31F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E38" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D38)</f>
@@ -2957,7 +2938,7 @@
       </c>
       <c r="D39" s="37" t="str">
         <f>_xll.qlSimpleQuote(C39,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD20x32F_SYNTH1Y_Quote#0002</v>
+        <v>HKD20x32F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E39" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D39)</f>
@@ -2979,7 +2960,7 @@
       </c>
       <c r="D40" s="37" t="str">
         <f>_xll.qlSimpleQuote(C40,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD21x33F_SYNTH1Y_Quote#0002</v>
+        <v>HKD21x33F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E40" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D40)</f>
@@ -3001,7 +2982,7 @@
       </c>
       <c r="D41" s="37" t="str">
         <f>_xll.qlSimpleQuote(C41,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD22x34F_SYNTH1Y_Quote#0002</v>
+        <v>HKD22x34F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E41" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D41)</f>
@@ -3023,7 +3004,7 @@
       </c>
       <c r="D42" s="37" t="str">
         <f>_xll.qlSimpleQuote(C42,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD23x35F_SYNTH1Y_Quote#0002</v>
+        <v>HKD23x35F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E42" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D42)</f>
@@ -3045,7 +3026,7 @@
       </c>
       <c r="D43" s="37" t="str">
         <f>_xll.qlSimpleQuote(C43,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD25x37F_SYNTH1Y_Quote#0002</v>
+        <v>HKD25x37F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E43" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D43)</f>
@@ -3067,7 +3048,7 @@
       </c>
       <c r="D44" s="37" t="str">
         <f>_xll.qlSimpleQuote(C44,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD26x38F_SYNTH1Y_Quote#0002</v>
+        <v>HKD26x38F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E44" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D44)</f>
@@ -3089,7 +3070,7 @@
       </c>
       <c r="D45" s="37" t="str">
         <f>_xll.qlSimpleQuote(C45,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD27x39F_SYNTH1Y_Quote#0002</v>
+        <v>HKD27x39F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E45" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D45)</f>
@@ -3111,7 +3092,7 @@
       </c>
       <c r="D46" s="37" t="str">
         <f>_xll.qlSimpleQuote(C46,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD28x40F_SYNTH1Y_Quote#0002</v>
+        <v>HKD28x40F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E46" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D46)</f>
@@ -3133,7 +3114,7 @@
       </c>
       <c r="D47" s="37" t="str">
         <f>_xll.qlSimpleQuote(C47,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD29x41F_SYNTH1Y_Quote#0002</v>
+        <v>HKD29x41F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E47" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D47)</f>
@@ -3155,7 +3136,7 @@
       </c>
       <c r="D48" s="37" t="str">
         <f>_xll.qlSimpleQuote(C48,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD30x42F_SYNTH1Y_Quote#0002</v>
+        <v>HKD30x42F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E48" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D48)</f>
@@ -3177,7 +3158,7 @@
       </c>
       <c r="D49" s="37" t="str">
         <f>_xll.qlSimpleQuote(C49,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD31x43F_SYNTH1Y_Quote#0002</v>
+        <v>HKD31x43F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E49" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D49)</f>
@@ -3199,7 +3180,7 @@
       </c>
       <c r="D50" s="37" t="str">
         <f>_xll.qlSimpleQuote(C50,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD32x44F_SYNTH1Y_Quote#0002</v>
+        <v>HKD32x44F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E50" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D50)</f>
@@ -3221,7 +3202,7 @@
       </c>
       <c r="D51" s="37" t="str">
         <f>_xll.qlSimpleQuote(C51,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD33x45F_SYNTH1Y_Quote#0002</v>
+        <v>HKD33x45F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E51" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D51)</f>
@@ -3243,7 +3224,7 @@
       </c>
       <c r="D52" s="37" t="str">
         <f>_xll.qlSimpleQuote(C52,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD34x46F_SYNTH1Y_Quote#0002</v>
+        <v>HKD34x46F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E52" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D52)</f>
@@ -3265,7 +3246,7 @@
       </c>
       <c r="D53" s="37" t="str">
         <f>_xll.qlSimpleQuote(C53,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD35x47F_SYNTH1Y_Quote#0002</v>
+        <v>HKD35x47F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E53" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D53)</f>
@@ -3287,7 +3268,7 @@
       </c>
       <c r="D54" s="37" t="str">
         <f>_xll.qlSimpleQuote(C54,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD37x49F_SYNTH1Y_Quote#0002</v>
+        <v>HKD37x49F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E54" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D54)</f>
@@ -3309,7 +3290,7 @@
       </c>
       <c r="D55" s="37" t="str">
         <f>_xll.qlSimpleQuote(C55,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD38x50F_SYNTH1Y_Quote#0002</v>
+        <v>HKD38x50F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E55" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D55)</f>
@@ -3331,7 +3312,7 @@
       </c>
       <c r="D56" s="37" t="str">
         <f>_xll.qlSimpleQuote(C56,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD39x51F_SYNTH1Y_Quote#0002</v>
+        <v>HKD39x51F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E56" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D56)</f>
@@ -3353,7 +3334,7 @@
       </c>
       <c r="D57" s="37" t="str">
         <f>_xll.qlSimpleQuote(C57,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD40x52F_SYNTH1Y_Quote#0002</v>
+        <v>HKD40x52F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E57" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D57)</f>
@@ -3375,7 +3356,7 @@
       </c>
       <c r="D58" s="37" t="str">
         <f>_xll.qlSimpleQuote(C58,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD41x53F_SYNTH1Y_Quote#0002</v>
+        <v>HKD41x53F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E58" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D58)</f>
@@ -3397,7 +3378,7 @@
       </c>
       <c r="D59" s="37" t="str">
         <f>_xll.qlSimpleQuote(C59,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD42x54F_SYNTH1Y_Quote#0002</v>
+        <v>HKD42x54F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E59" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D59)</f>
@@ -3419,7 +3400,7 @@
       </c>
       <c r="D60" s="37" t="str">
         <f>_xll.qlSimpleQuote(C60,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD43x55F_SYNTH1Y_Quote#0002</v>
+        <v>HKD43x55F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E60" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D60)</f>
@@ -3441,7 +3422,7 @@
       </c>
       <c r="D61" s="37" t="str">
         <f>_xll.qlSimpleQuote(C61,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD44x56F_SYNTH1Y_Quote#0002</v>
+        <v>HKD44x56F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E61" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D61)</f>
@@ -3463,7 +3444,7 @@
       </c>
       <c r="D62" s="37" t="str">
         <f>_xll.qlSimpleQuote(C62,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD45x57F_SYNTH1Y_Quote#0002</v>
+        <v>HKD45x57F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E62" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D62)</f>
@@ -3485,7 +3466,7 @@
       </c>
       <c r="D63" s="37" t="str">
         <f>_xll.qlSimpleQuote(C63,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD46x58F_SYNTH1Y_Quote#0002</v>
+        <v>HKD46x58F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E63" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D63)</f>
@@ -3507,7 +3488,7 @@
       </c>
       <c r="D64" s="38" t="str">
         <f>_xll.qlSimpleQuote(C64,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD47x59F_SYNTH1Y_Quote#0002</v>
+        <v>HKD47x59F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E64" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(D64)</f>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_015_SyntheticQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_015_SyntheticQuotes.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
   <si>
     <t>Currency</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>HKD</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1097,9 +1100,8 @@
       <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="16" t="str">
-        <f>qlSerializationPath(Trigger)</f>
-        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+      <c r="D8" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="E8" s="15"/>
     </row>
@@ -1234,7 +1236,7 @@
       </c>
       <c r="E2" s="34" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_015_SyntheticQuotesON.xml</v>
+        <v/>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -1338,7 +1340,7 @@
       </c>
       <c r="E2" s="34" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_015_SyntheticQuotes1M.xml</v>
+        <v/>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -1575,7 +1577,7 @@
       </c>
       <c r="E2" s="34" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_015_SyntheticQuotes3M.xml</v>
+        <v/>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -1850,7 +1852,7 @@
       </c>
       <c r="E2" s="34" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_015_SyntheticQuotes6M.xml</v>
+        <v/>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -2182,7 +2184,7 @@
       </c>
       <c r="E2" s="34" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_015_SyntheticQuotes1Y.xml</v>
+        <v/>
       </c>
       <c r="F2" s="2"/>
     </row>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_015_SyntheticQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_015_SyntheticQuotes.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
   <si>
     <t>Currency</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>HKD</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1100,8 +1097,9 @@
       <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>34</v>
+      <c r="D8" s="16" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="15"/>
     </row>
@@ -1231,12 +1229,12 @@
         <v>HKD_015_SyntheticQuotesON.xml</v>
       </c>
       <c r="D2" s="39" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(D3:D4,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E2" s="34" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D3:D4,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E2" s="34" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -1335,12 +1333,12 @@
         <v>HKD_015_SyntheticQuotes1M.xml</v>
       </c>
       <c r="D2" s="39" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(D3:D11,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E2" s="34" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D3:D11,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E2" s="34" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -1572,12 +1570,12 @@
         <v>HKD_015_SyntheticQuotes3M.xml</v>
       </c>
       <c r="D2" s="39" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(D3:D13,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E2" s="34" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D3:D13,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E2" s="34" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -1847,12 +1845,12 @@
         <v>HKD_015_SyntheticQuotes6M.xml</v>
       </c>
       <c r="D2" s="39" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(D3:D16,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E2" s="34" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D3:D16,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E2" s="34" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -2179,12 +2177,12 @@
         <v>HKD_015_SyntheticQuotes1Y.xml</v>
       </c>
       <c r="D2" s="39" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(D3:D64,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E2" s="34" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D3:D64,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E2" s="34" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F2" s="2"/>
     </row>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_015_SyntheticQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_015_SyntheticQuotes.xlsx
@@ -1030,7 +1030,7 @@
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Nov  6 2013 01:01:46</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="D8" s="16" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="15"/>
     </row>
@@ -1228,13 +1228,13 @@
         <f>Currency&amp;"_015_SyntheticQuotes"&amp;Tenor&amp;".xml"</f>
         <v>HKD_015_SyntheticQuotesON.xml</v>
       </c>
-      <c r="D2" s="39" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(D3:D4,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E2" s="34" t="e">
+      <c r="D2" s="39">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D3:D4,SerializationPath&amp;C2,FileOverwrite,,Serialize),"---")</f>
+        <v>2</v>
+      </c>
+      <c r="E2" s="34" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="D3" s="47" t="str">
         <f>_xll.qlSimpleQuote(C3,1,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTOY_SYNTHON_Quote#0001</v>
+        <v>HKDTOY_SYNTHON_Quote#0002</v>
       </c>
       <c r="E3" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(D3)</f>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="D4" s="41" t="str">
         <f>_xll.qlSimpleQuote(C4,1,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTOY2_SYNTHON_Quote#0001</v>
+        <v>HKDTOY2_SYNTHON_Quote#0002</v>
       </c>
       <c r="E4" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(D4)</f>
@@ -1332,13 +1332,13 @@
         <f>Currency&amp;"_015_SyntheticQuotes"&amp;Tenor&amp;".xml"</f>
         <v>HKD_015_SyntheticQuotes1M.xml</v>
       </c>
-      <c r="D2" s="39" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(D3:D11,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E2" s="34" t="e">
+      <c r="D2" s="39">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D3:D11,SerializationPath&amp;C2,FileOverwrite,,Serialize),"---")</f>
+        <v>9</v>
+      </c>
+      <c r="E2" s="34" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="D3" s="40" t="str">
         <f>_xll.qlSimpleQuote(C3,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOND_SYNTH1M_Quote#0001</v>
+        <v>HKDOND_SYNTH1M_Quote#0002</v>
       </c>
       <c r="E3" s="42" t="str">
         <f>_xll.ohRangeRetrieveError(D3)</f>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="D4" s="40" t="str">
         <f>_xll.qlSimpleQuote(C4,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTND_SYNTH1M_Quote#0001</v>
+        <v>HKDTND_SYNTH1M_Quote#0002</v>
       </c>
       <c r="E4" s="42" t="str">
         <f>_xll.ohRangeRetrieveError(D4)</f>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="D5" s="40" t="str">
         <f>_xll.qlSimpleQuote(C5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSND_SYNTH1M_Quote#0001</v>
+        <v>HKDSND_SYNTH1M_Quote#0002</v>
       </c>
       <c r="E5" s="42" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="D6" s="40" t="str">
         <f>_xll.qlSimpleQuote(C6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSWD_SYNTH1M_Quote#0001</v>
+        <v>HKDSWD_SYNTH1M_Quote#0002</v>
       </c>
       <c r="E6" s="42" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="D7" s="40" t="str">
         <f>_xll.qlSimpleQuote(C7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2WD_SYNTH1M_Quote#0001</v>
+        <v>HKD2WD_SYNTH1M_Quote#0002</v>
       </c>
       <c r="E7" s="42" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="D8" s="40" t="str">
         <f>_xll.qlSimpleQuote(C8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3WD_SYNTH1M_Quote#0001</v>
+        <v>HKD3WD_SYNTH1M_Quote#0002</v>
       </c>
       <c r="E8" s="42" t="str">
         <f>_xll.ohRangeRetrieveError(D8)</f>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="D9" s="37" t="str">
         <f>_xll.qlSimpleQuote(C9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1MD_SYNTH1M_Quote#0001</v>
+        <v>HKD1MD_SYNTH1M_Quote#0002</v>
       </c>
       <c r="E9" s="42" t="str">
         <f>_xll.ohRangeRetrieveError(D9)</f>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="D10" s="47" t="str">
         <f>_xll.qlSimpleQuote(C10,1,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTOY_SYNTH1M_Quote#0001</v>
+        <v>HKDTOY_SYNTH1M_Quote#0002</v>
       </c>
       <c r="E10" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(D10)</f>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="D11" s="41" t="str">
         <f>_xll.qlSimpleQuote(C11,1,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTOY2_SYNTH1M_Quote#0001</v>
+        <v>HKDTOY2_SYNTH1M_Quote#0002</v>
       </c>
       <c r="E11" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(D11)</f>
@@ -1569,13 +1569,13 @@
         <f>Currency&amp;"_015_SyntheticQuotes"&amp;Tenor&amp;".xml"</f>
         <v>HKD_015_SyntheticQuotes3M.xml</v>
       </c>
-      <c r="D2" s="39" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(D3:D13,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E2" s="34" t="e">
+      <c r="D2" s="39">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D3:D13,SerializationPath&amp;C2,FileOverwrite,,Serialize),"---")</f>
+        <v>11</v>
+      </c>
+      <c r="E2" s="34" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="D3" s="37" t="str">
         <f>_xll.qlSimpleQuote(C3,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOND_SYNTH3M_Quote#0001</v>
+        <v>HKDOND_SYNTH3M_Quote#0002</v>
       </c>
       <c r="E3" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D3)</f>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="D4" s="37" t="str">
         <f>_xll.qlSimpleQuote(C4,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTND_SYNTH3M_Quote#0001</v>
+        <v>HKDTND_SYNTH3M_Quote#0002</v>
       </c>
       <c r="E4" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D4)</f>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="D5" s="37" t="str">
         <f>_xll.qlSimpleQuote(C5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSND_SYNTH3M_Quote#0001</v>
+        <v>HKDSND_SYNTH3M_Quote#0002</v>
       </c>
       <c r="E5" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="D6" s="37" t="str">
         <f>_xll.qlSimpleQuote(C6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSWD_SYNTH3M_Quote#0001</v>
+        <v>HKDSWD_SYNTH3M_Quote#0002</v>
       </c>
       <c r="E6" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="D7" s="37" t="str">
         <f>_xll.qlSimpleQuote(C7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2WD_SYNTH3M_Quote#0001</v>
+        <v>HKD2WD_SYNTH3M_Quote#0002</v>
       </c>
       <c r="E7" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="D8" s="37" t="str">
         <f>_xll.qlSimpleQuote(C8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3WD_SYNTH3M_Quote#0001</v>
+        <v>HKD3WD_SYNTH3M_Quote#0002</v>
       </c>
       <c r="E8" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D8)</f>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="D9" s="37" t="str">
         <f>_xll.qlSimpleQuote(C9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1MD_SYNTH3M_Quote#0001</v>
+        <v>HKD1MD_SYNTH3M_Quote#0002</v>
       </c>
       <c r="E9" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D9)</f>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="D10" s="37" t="str">
         <f>_xll.qlSimpleQuote(C10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2MD_SYNTH3M_Quote#0001</v>
+        <v>HKD2MD_SYNTH3M_Quote#0002</v>
       </c>
       <c r="E10" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D10)</f>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="D11" s="37" t="str">
         <f>_xll.qlSimpleQuote(C11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3MD_SYNTH3M_Quote#0001</v>
+        <v>HKD3MD_SYNTH3M_Quote#0002</v>
       </c>
       <c r="E11" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D11)</f>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="D12" s="44" t="str">
         <f>_xll.qlSimpleQuote(C12,1,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTOY_SYNTH3M_Quote#0001</v>
+        <v>HKDTOY_SYNTH3M_Quote#0002</v>
       </c>
       <c r="E12" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(D12)</f>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="D13" s="38" t="str">
         <f>_xll.qlSimpleQuote(C13,1,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTOY2_SYNTH3M_Quote#0001</v>
+        <v>HKDTOY2_SYNTH3M_Quote#0002</v>
       </c>
       <c r="E13" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(D13)</f>
@@ -1844,13 +1844,13 @@
         <f>Currency&amp;"_015_SyntheticQuotes"&amp;Tenor&amp;".xml"</f>
         <v>HKD_015_SyntheticQuotes6M.xml</v>
       </c>
-      <c r="D2" s="39" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(D3:D16,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E2" s="34" t="e">
+      <c r="D2" s="39">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D3:D16,SerializationPath&amp;C2,FileOverwrite,,Serialize),"---")</f>
+        <v>14</v>
+      </c>
+      <c r="E2" s="34" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="D3" s="44" t="str">
         <f>_xll.qlSimpleQuote(C3,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOND_SYNTH6M_Quote#0001</v>
+        <v>HKDOND_SYNTH6M_Quote#0002</v>
       </c>
       <c r="E3" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(D3)</f>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="D4" s="37" t="str">
         <f>_xll.qlSimpleQuote(C4,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTND_SYNTH6M_Quote#0001</v>
+        <v>HKDTND_SYNTH6M_Quote#0002</v>
       </c>
       <c r="E4" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D4)</f>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D5" s="37" t="str">
         <f>_xll.qlSimpleQuote(C5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSND_SYNTH6M_Quote#0001</v>
+        <v>HKDSND_SYNTH6M_Quote#0002</v>
       </c>
       <c r="E5" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="D6" s="37" t="str">
         <f>_xll.qlSimpleQuote(C6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSWD_SYNTH6M_Quote#0001</v>
+        <v>HKDSWD_SYNTH6M_Quote#0002</v>
       </c>
       <c r="E6" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="D7" s="37" t="str">
         <f>_xll.qlSimpleQuote(C7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2WD_SYNTH6M_Quote#0001</v>
+        <v>HKD2WD_SYNTH6M_Quote#0002</v>
       </c>
       <c r="E7" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="D8" s="37" t="str">
         <f>_xll.qlSimpleQuote(C8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3WD_SYNTH6M_Quote#0001</v>
+        <v>HKD3WD_SYNTH6M_Quote#0002</v>
       </c>
       <c r="E8" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D8)</f>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="D9" s="37" t="str">
         <f>_xll.qlSimpleQuote(C9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1MD_SYNTH6M_Quote#0001</v>
+        <v>HKD1MD_SYNTH6M_Quote#0002</v>
       </c>
       <c r="E9" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D9)</f>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="D10" s="37" t="str">
         <f>_xll.qlSimpleQuote(C10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2MD_SYNTH6M_Quote#0001</v>
+        <v>HKD2MD_SYNTH6M_Quote#0002</v>
       </c>
       <c r="E10" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D10)</f>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="D11" s="37" t="str">
         <f>_xll.qlSimpleQuote(C11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3MD_SYNTH6M_Quote#0001</v>
+        <v>HKD3MD_SYNTH6M_Quote#0002</v>
       </c>
       <c r="E11" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D11)</f>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="D12" s="37" t="str">
         <f>_xll.qlSimpleQuote(C12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD4MD_SYNTH6M_Quote#0001</v>
+        <v>HKD4MD_SYNTH6M_Quote#0002</v>
       </c>
       <c r="E12" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D12)</f>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="D13" s="37" t="str">
         <f>_xll.qlSimpleQuote(C13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD5MD_SYNTH6M_Quote#0001</v>
+        <v>HKD5MD_SYNTH6M_Quote#0002</v>
       </c>
       <c r="E13" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D13)</f>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="D14" s="38" t="str">
         <f>_xll.qlSimpleQuote(C14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6MD_SYNTH6M_Quote#0001</v>
+        <v>HKD6MD_SYNTH6M_Quote#0002</v>
       </c>
       <c r="E14" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(D14)</f>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="D15" s="37" t="str">
         <f>_xll.qlSimpleQuote(C15,1,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTOY_SYNTH6M_Quote#0001</v>
+        <v>HKDTOY_SYNTH6M_Quote#0002</v>
       </c>
       <c r="E15" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D15)</f>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="D16" s="38" t="str">
         <f>_xll.qlSimpleQuote(C16,1,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTOY2_SYNTH6M_Quote#0001</v>
+        <v>HKDTOY2_SYNTH6M_Quote#0002</v>
       </c>
       <c r="E16" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(D16)</f>
@@ -2176,13 +2176,13 @@
         <f>Currency&amp;"_015_SyntheticQuotes"&amp;Tenor&amp;".xml"</f>
         <v>HKD_015_SyntheticQuotes1Y.xml</v>
       </c>
-      <c r="D2" s="39" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(D3:D64,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E2" s="34" t="e">
+      <c r="D2" s="39">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D3:D64,SerializationPath&amp;C2,FileOverwrite,,Serialize),"---")</f>
+        <v>62</v>
+      </c>
+      <c r="E2" s="34" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="D3" s="37" t="str">
         <f>_xll.qlSimpleQuote(C3,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOND_SYNTH1Y_Quote#0001</v>
+        <v>HKDOND_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E3" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D3)</f>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="D4" s="37" t="str">
         <f>_xll.qlSimpleQuote(C4,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTND_SYNTH1Y_Quote#0001</v>
+        <v>HKDTND_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E4" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D4)</f>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="D5" s="37" t="str">
         <f>_xll.qlSimpleQuote(C5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSND_SYNTH1Y_Quote#0001</v>
+        <v>HKDSND_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E5" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="D6" s="37" t="str">
         <f>_xll.qlSimpleQuote(C6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSWD_SYNTH1Y_Quote#0001</v>
+        <v>HKDSWD_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E6" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="D7" s="37" t="str">
         <f>_xll.qlSimpleQuote(C7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2WD_SYNTH1Y_Quote#0001</v>
+        <v>HKD2WD_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E7" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="D8" s="37" t="str">
         <f>_xll.qlSimpleQuote(C8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3WD_SYNTH1Y_Quote#0001</v>
+        <v>HKD3WD_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E8" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D8)</f>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="D9" s="37" t="str">
         <f>_xll.qlSimpleQuote(C9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1MD_SYNTH1Y_Quote#0001</v>
+        <v>HKD1MD_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E9" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D9)</f>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="D10" s="37" t="str">
         <f>_xll.qlSimpleQuote(C10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2MD_SYNTH1Y_Quote#0001</v>
+        <v>HKD2MD_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E10" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D10)</f>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="D11" s="37" t="str">
         <f>_xll.qlSimpleQuote(C11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3MD_SYNTH1Y_Quote#0001</v>
+        <v>HKD3MD_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E11" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D11)</f>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="D12" s="37" t="str">
         <f>_xll.qlSimpleQuote(C12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD4MD_SYNTH1Y_Quote#0001</v>
+        <v>HKD4MD_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E12" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D12)</f>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D13" s="37" t="str">
         <f>_xll.qlSimpleQuote(C13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD5MD_SYNTH1Y_Quote#0001</v>
+        <v>HKD5MD_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E13" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D13)</f>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="D14" s="37" t="str">
         <f>_xll.qlSimpleQuote(C14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6MD_SYNTH1Y_Quote#0001</v>
+        <v>HKD6MD_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E14" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D14)</f>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="D15" s="37" t="str">
         <f>_xll.qlSimpleQuote(C15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD7MD_SYNTH1Y_Quote#0001</v>
+        <v>HKD7MD_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E15" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D15)</f>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="D16" s="37" t="str">
         <f>_xll.qlSimpleQuote(C16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD8MD_SYNTH1Y_Quote#0001</v>
+        <v>HKD8MD_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E16" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D16)</f>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="D17" s="37" t="str">
         <f>_xll.qlSimpleQuote(C17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD9MD_SYNTH1Y_Quote#0001</v>
+        <v>HKD9MD_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E17" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D17)</f>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="D18" s="37" t="str">
         <f>_xll.qlSimpleQuote(C18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD10MD_SYNTH1Y_Quote#0001</v>
+        <v>HKD10MD_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E18" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D18)</f>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="D19" s="37" t="str">
         <f>_xll.qlSimpleQuote(C19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD11MD_SYNTH1Y_Quote#0001</v>
+        <v>HKD11MD_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E19" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D19)</f>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="D20" s="38" t="str">
         <f>_xll.qlSimpleQuote(C20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1YD_SYNTH1Y_Quote#0001</v>
+        <v>HKD1YD_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E20" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(D20)</f>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="D21" s="44" t="str">
         <f>_xll.qlSimpleQuote(C21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1x13F_SYNTH1Y_Quote#0001</v>
+        <v>HKD1x13F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E21" s="45" t="str">
         <f>_xll.ohRangeRetrieveError(D21)</f>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="D22" s="37" t="str">
         <f>_xll.qlSimpleQuote(C22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2x14F_SYNTH1Y_Quote#0001</v>
+        <v>HKD2x14F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E22" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D22)</f>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="D23" s="37" t="str">
         <f>_xll.qlSimpleQuote(C23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3x15F_SYNTH1Y_Quote#0001</v>
+        <v>HKD3x15F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E23" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D23)</f>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="D24" s="37" t="str">
         <f>_xll.qlSimpleQuote(C24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD4x16F_SYNTH1Y_Quote#0001</v>
+        <v>HKD4x16F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E24" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D24)</f>
@@ -2630,7 +2630,7 @@
       </c>
       <c r="D25" s="37" t="str">
         <f>_xll.qlSimpleQuote(C25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD5x17F_SYNTH1Y_Quote#0001</v>
+        <v>HKD5x17F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E25" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D25)</f>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="D26" s="37" t="str">
         <f>_xll.qlSimpleQuote(C26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6x18F_SYNTH1Y_Quote#0001</v>
+        <v>HKD6x18F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E26" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D26)</f>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="D27" s="37" t="str">
         <f>_xll.qlSimpleQuote(C27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD7x19F_SYNTH1Y_Quote#0001</v>
+        <v>HKD7x19F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E27" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D27)</f>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="D28" s="37" t="str">
         <f>_xll.qlSimpleQuote(C28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD8x20F_SYNTH1Y_Quote#0001</v>
+        <v>HKD8x20F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E28" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D28)</f>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="D29" s="37" t="str">
         <f>_xll.qlSimpleQuote(C29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD9x21F_SYNTH1Y_Quote#0001</v>
+        <v>HKD9x21F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E29" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D29)</f>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="D30" s="37" t="str">
         <f>_xll.qlSimpleQuote(C30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD10x22F_SYNTH1Y_Quote#0001</v>
+        <v>HKD10x22F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E30" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D30)</f>
@@ -2762,7 +2762,7 @@
       </c>
       <c r="D31" s="37" t="str">
         <f>_xll.qlSimpleQuote(C31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD11x23F_SYNTH1Y_Quote#0001</v>
+        <v>HKD11x23F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E31" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D31)</f>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="D32" s="37" t="str">
         <f>_xll.qlSimpleQuote(C32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD13x25F_SYNTH1Y_Quote#0001</v>
+        <v>HKD13x25F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E32" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D32)</f>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="D33" s="37" t="str">
         <f>_xll.qlSimpleQuote(C33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD14x26F_SYNTH1Y_Quote#0001</v>
+        <v>HKD14x26F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E33" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D33)</f>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="D34" s="37" t="str">
         <f>_xll.qlSimpleQuote(C34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD15x27F_SYNTH1Y_Quote#0001</v>
+        <v>HKD15x27F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E34" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D34)</f>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="D35" s="37" t="str">
         <f>_xll.qlSimpleQuote(C35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD16x28F_SYNTH1Y_Quote#0001</v>
+        <v>HKD16x28F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E35" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D35)</f>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="D36" s="37" t="str">
         <f>_xll.qlSimpleQuote(C36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD17x29F_SYNTH1Y_Quote#0001</v>
+        <v>HKD17x29F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E36" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D36)</f>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="D37" s="37" t="str">
         <f>_xll.qlSimpleQuote(C37,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD18x30F_SYNTH1Y_Quote#0001</v>
+        <v>HKD18x30F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E37" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D37)</f>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="D38" s="37" t="str">
         <f>_xll.qlSimpleQuote(C38,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD19x31F_SYNTH1Y_Quote#0001</v>
+        <v>HKD19x31F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E38" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D38)</f>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="D39" s="37" t="str">
         <f>_xll.qlSimpleQuote(C39,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD20x32F_SYNTH1Y_Quote#0001</v>
+        <v>HKD20x32F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E39" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D39)</f>
@@ -2960,7 +2960,7 @@
       </c>
       <c r="D40" s="37" t="str">
         <f>_xll.qlSimpleQuote(C40,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD21x33F_SYNTH1Y_Quote#0001</v>
+        <v>HKD21x33F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E40" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D40)</f>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="D41" s="37" t="str">
         <f>_xll.qlSimpleQuote(C41,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD22x34F_SYNTH1Y_Quote#0001</v>
+        <v>HKD22x34F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E41" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D41)</f>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="D42" s="37" t="str">
         <f>_xll.qlSimpleQuote(C42,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD23x35F_SYNTH1Y_Quote#0001</v>
+        <v>HKD23x35F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E42" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D42)</f>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="D43" s="37" t="str">
         <f>_xll.qlSimpleQuote(C43,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD25x37F_SYNTH1Y_Quote#0001</v>
+        <v>HKD25x37F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E43" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D43)</f>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="D44" s="37" t="str">
         <f>_xll.qlSimpleQuote(C44,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD26x38F_SYNTH1Y_Quote#0001</v>
+        <v>HKD26x38F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E44" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D44)</f>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="D45" s="37" t="str">
         <f>_xll.qlSimpleQuote(C45,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD27x39F_SYNTH1Y_Quote#0001</v>
+        <v>HKD27x39F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E45" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D45)</f>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="D46" s="37" t="str">
         <f>_xll.qlSimpleQuote(C46,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD28x40F_SYNTH1Y_Quote#0001</v>
+        <v>HKD28x40F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E46" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D46)</f>
@@ -3114,7 +3114,7 @@
       </c>
       <c r="D47" s="37" t="str">
         <f>_xll.qlSimpleQuote(C47,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD29x41F_SYNTH1Y_Quote#0001</v>
+        <v>HKD29x41F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E47" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D47)</f>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="D48" s="37" t="str">
         <f>_xll.qlSimpleQuote(C48,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD30x42F_SYNTH1Y_Quote#0001</v>
+        <v>HKD30x42F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E48" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D48)</f>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="D49" s="37" t="str">
         <f>_xll.qlSimpleQuote(C49,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD31x43F_SYNTH1Y_Quote#0001</v>
+        <v>HKD31x43F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E49" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D49)</f>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="D50" s="37" t="str">
         <f>_xll.qlSimpleQuote(C50,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD32x44F_SYNTH1Y_Quote#0001</v>
+        <v>HKD32x44F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E50" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D50)</f>
@@ -3202,7 +3202,7 @@
       </c>
       <c r="D51" s="37" t="str">
         <f>_xll.qlSimpleQuote(C51,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD33x45F_SYNTH1Y_Quote#0001</v>
+        <v>HKD33x45F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E51" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D51)</f>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="D52" s="37" t="str">
         <f>_xll.qlSimpleQuote(C52,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD34x46F_SYNTH1Y_Quote#0001</v>
+        <v>HKD34x46F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E52" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D52)</f>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="D53" s="37" t="str">
         <f>_xll.qlSimpleQuote(C53,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD35x47F_SYNTH1Y_Quote#0001</v>
+        <v>HKD35x47F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E53" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D53)</f>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="D54" s="37" t="str">
         <f>_xll.qlSimpleQuote(C54,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD37x49F_SYNTH1Y_Quote#0001</v>
+        <v>HKD37x49F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E54" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D54)</f>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="D55" s="37" t="str">
         <f>_xll.qlSimpleQuote(C55,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD38x50F_SYNTH1Y_Quote#0001</v>
+        <v>HKD38x50F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E55" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D55)</f>
@@ -3312,7 +3312,7 @@
       </c>
       <c r="D56" s="37" t="str">
         <f>_xll.qlSimpleQuote(C56,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD39x51F_SYNTH1Y_Quote#0001</v>
+        <v>HKD39x51F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E56" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D56)</f>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="D57" s="37" t="str">
         <f>_xll.qlSimpleQuote(C57,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD40x52F_SYNTH1Y_Quote#0001</v>
+        <v>HKD40x52F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E57" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D57)</f>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="D58" s="37" t="str">
         <f>_xll.qlSimpleQuote(C58,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD41x53F_SYNTH1Y_Quote#0001</v>
+        <v>HKD41x53F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E58" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D58)</f>
@@ -3378,7 +3378,7 @@
       </c>
       <c r="D59" s="37" t="str">
         <f>_xll.qlSimpleQuote(C59,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD42x54F_SYNTH1Y_Quote#0001</v>
+        <v>HKD42x54F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E59" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D59)</f>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="D60" s="37" t="str">
         <f>_xll.qlSimpleQuote(C60,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD43x55F_SYNTH1Y_Quote#0001</v>
+        <v>HKD43x55F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E60" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D60)</f>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="D61" s="37" t="str">
         <f>_xll.qlSimpleQuote(C61,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD44x56F_SYNTH1Y_Quote#0001</v>
+        <v>HKD44x56F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E61" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D61)</f>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="D62" s="37" t="str">
         <f>_xll.qlSimpleQuote(C62,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD45x57F_SYNTH1Y_Quote#0001</v>
+        <v>HKD45x57F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E62" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D62)</f>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="D63" s="37" t="str">
         <f>_xll.qlSimpleQuote(C63,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD46x58F_SYNTH1Y_Quote#0001</v>
+        <v>HKD46x58F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E63" s="32" t="str">
         <f>_xll.ohRangeRetrieveError(D63)</f>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="D64" s="38" t="str">
         <f>_xll.qlSimpleQuote(C64,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD47x59F_SYNTH1Y_Quote#0001</v>
+        <v>HKD47x59F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E64" s="33" t="str">
         <f>_xll.ohRangeRetrieveError(D64)</f>
